--- a/RAnalysis/Data/Experiment_metadata/Experiment_metadata.xlsx
+++ b/RAnalysis/Data/Experiment_metadata/Experiment_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Github_repositories\Pmagellanicus_omics\RAnalysis\Data\Experiment_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA46AE79-E524-47DC-8A9E-E59C327D1F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C056F-AE5C-4B1F-BE99-F565E07C3F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9094AC2C-4120-4C93-A973-CA733AA473E4}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15390" windowHeight="9360" xr2:uid="{9094AC2C-4120-4C93-A973-CA733AA473E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
-    <t>Tank_number</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -78,24 +75,21 @@
   </si>
   <si>
     <t>Hurricane_Crane</t>
+  </si>
+  <si>
+    <t>Tank_num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -119,11 +113,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +452,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,29 +466,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -505,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -531,13 +522,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -557,13 +548,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -583,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -609,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -635,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -661,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -687,13 +678,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -713,13 +704,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -739,13 +730,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -765,13 +756,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -791,13 +782,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -817,13 +808,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -843,13 +834,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -869,13 +860,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -895,13 +886,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
       </c>
       <c r="E17">
         <v>4</v>
